--- a/ProspectBackground/data/base_file_simplified_v2.xlsx
+++ b/ProspectBackground/data/base_file_simplified_v2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="88">
   <si>
     <t xml:space="preserve">Processor</t>
   </si>
@@ -216,15 +216,6 @@
     <t xml:space="preserve">309ff1f1194f2b5ea34d8c077103b1e3</t>
   </si>
   <si>
-    <t xml:space="preserve">el_import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1373b63314d03c42313a372bca1bd648</t>
-  </si>
-  <si>
     <t xml:space="preserve">biofuel_to_diesel</t>
   </si>
   <si>
@@ -288,6 +279,9 @@
     <t xml:space="preserve">Storage</t>
   </si>
   <si>
+    <t xml:space="preserve">Imports</t>
+  </si>
+  <si>
     <t xml:space="preserve">n-2</t>
   </si>
   <si>
@@ -302,7 +296,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,19 +339,13 @@
       <color rgb="FF6AAB73"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF6AAB73"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -369,7 +357,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,12 +380,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFDE9D9"/>
         <bgColor rgb="FFEBF1DE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -532,7 +514,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -585,27 +567,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -613,7 +583,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -621,11 +595,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -633,7 +603,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -641,11 +611,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -687,7 +657,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D2E9"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -902,10 +872,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J776"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1619,7 +1589,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
         <v>64</v>
       </c>
@@ -1627,259 +1597,245 @@
         <v>13</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F28" s="14" t="n">
-        <v>1000000000</v>
+        <v>133000000</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
-        <v>67</v>
+      <c r="A29" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>68</v>
+      <c r="C29" s="13" t="s">
+        <v>59</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="14" t="n">
+        <v>23600000</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="17" t="n">
-        <v>133000000</v>
-      </c>
-      <c r="G29" s="16" t="s">
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>59</v>
+      <c r="C30" s="13" t="s">
+        <v>71</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>69</v>
+      <c r="D30" s="13" t="s">
+        <v>66</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="17" t="n">
-        <v>23600000</v>
+      <c r="F30" s="14" t="n">
+        <v>159000000</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" customFormat="false" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>69</v>
+      <c r="D31" s="4" t="s">
+        <v>66</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>42</v>
+      <c r="E31" s="4" t="s">
+        <v>11</v>
       </c>
-      <c r="F31" s="17" t="n">
-        <v>159000000</v>
+      <c r="F31" s="16" t="n">
+        <v>300366782</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="19" t="n">
-        <v>300366782</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
@@ -10665,18 +10621,7 @@
       <c r="I775" s="3"/>
       <c r="J775" s="3"/>
     </row>
-    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="3"/>
-      <c r="B776" s="3"/>
-      <c r="C776" s="3"/>
-      <c r="D776" s="3"/>
-      <c r="E776" s="3"/>
-      <c r="F776" s="3"/>
-      <c r="G776" s="3"/>
-      <c r="H776" s="3"/>
-      <c r="I776" s="3"/>
-      <c r="J776" s="3"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -10705,17 +10650,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>79</v>
+      <c r="A1" s="21" t="s">
+        <v>76</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -10737,12 +10682,12 @@
       <c r="AB1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>80</v>
+      <c r="A2" s="21" t="s">
+        <v>77</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -10769,12 +10714,12 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>81</v>
+      <c r="A3" s="21" t="s">
+        <v>78</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -10801,10 +10746,10 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -10831,10 +10776,10 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -10861,10 +10806,10 @@
       <c r="AB5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10891,10 +10836,10 @@
       <c r="AB6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -10921,10 +10866,10 @@
       <c r="AB7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -10951,10 +10896,10 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -10981,10 +10926,10 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -11011,10 +10956,10 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -11041,10 +10986,10 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -11071,10 +11016,10 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -11101,10 +11046,10 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -11131,10 +11076,10 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -11161,10 +11106,10 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -11191,10 +11136,10 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -11221,10 +11166,10 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -11251,10 +11196,10 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -11281,7 +11226,7 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -11311,7 +11256,7 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -11341,7 +11286,7 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -11371,7 +11316,7 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -40861,7 +40806,7 @@
   <dimension ref="A1:C993"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40879,138 +40824,132 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>83</v>
+      <c r="A2" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
+      <c r="B4" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="26" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
-        <v>89</v>
-      </c>
       <c r="B11" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
